--- a/SSWebScraper/SSWebScraper/Data/SeedData/DataSheets/TransmissionTypeLanguage.xlsx
+++ b/SSWebScraper/SSWebScraper/Data/SeedData/DataSheets/TransmissionTypeLanguage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T480\Desktop\MarketWatch\SSWebScraper\SSWebScraper\Data\SeedData\DataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727B0B8F-090C-4746-8E4B-6886A383ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6448C31C-4333-43D0-99DB-5268AB683616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5340" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>TransmissionTypeId</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>DisplayOrder</t>
   </si>
   <si>
     <t>Nezinams</t>
@@ -414,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,7 +423,7 @@
     <col min="3" max="3" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,25 +433,19 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -462,13 +453,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>12</v>
       </c>
@@ -476,13 +464,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13</v>
       </c>
@@ -490,13 +475,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>14</v>
       </c>
@@ -504,13 +486,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>15</v>
       </c>
@@ -518,13 +497,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>16</v>
       </c>
@@ -532,13 +508,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>17</v>
       </c>
@@ -546,13 +519,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>18</v>
       </c>
@@ -560,13 +530,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>19</v>
       </c>
@@ -574,13 +541,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -588,13 +552,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -602,13 +563,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22</v>
       </c>
@@ -616,13 +574,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>23</v>
       </c>
@@ -630,13 +585,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -644,13 +596,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>25</v>
       </c>
@@ -658,13 +607,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26</v>
       </c>
@@ -672,13 +618,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>27</v>
       </c>
@@ -686,13 +629,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -700,13 +640,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -714,10 +651,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
